--- a/Data/Samlet forbrug tidsserie.xlsx
+++ b/Data/Samlet forbrug tidsserie.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Hele landet</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>10. decil</t>
+  </si>
+  <si>
+    <t>Aar</t>
   </si>
 </sst>
 </file>
@@ -390,9 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -400,6 +401,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
